--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_15_31.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_15_31.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2474738.359021663</v>
+        <v>2472194.549514581</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283185</v>
+        <v>416855.1052283187</v>
       </c>
     </row>
     <row r="9">
@@ -659,22 +659,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>263.7138800015063</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>212.5689651179052</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>263.7138800015063</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>12.83417464571001</v>
+        <v>25.67913628361556</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -710,13 +710,13 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>212.2897156032232</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.1481678782825</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -725,7 +725,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>263.7138800015063</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -735,25 +735,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>86.58069245707574</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -783,16 +783,16 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>18.15252495527767</v>
+        <v>18.15252495527768</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>147.1499354121988</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>194.8409875848768</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.8544875035546</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -801,10 +801,10 @@
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>155.2537761190406</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -814,7 +814,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -829,16 +829,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.8836670385466</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>61.89955604557625</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>15.07219909888208</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -862,7 +862,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>127.5046028836639</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -871,16 +871,16 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>263.7138800015063</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>226.6607070537004</v>
       </c>
       <c r="W4" t="n">
-        <v>263.7138800015063</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -893,16 +893,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>212.5689651179052</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>263.7138800015063</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>263.7138800015063</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>263.7138800015063</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="F5" t="n">
         <v>6.876045741711437</v>
@@ -914,7 +914,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>115.3066195468971</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -947,13 +947,13 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>97.26234557100793</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -962,7 +962,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
     </row>
     <row r="6">
@@ -975,7 +975,7 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -990,10 +990,10 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>83.54777021721321</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>43.92180400150558</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1023,25 +1023,25 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>147.1499354121988</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>194.8409875848768</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.8544875035546</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>50.06632887147386</v>
       </c>
     </row>
     <row r="7">
@@ -1054,13 +1054,13 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>34.52670189341621</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1099,7 +1099,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>127.5046028836639</v>
       </c>
       <c r="S7" t="n">
         <v>204.7191642435938</v>
@@ -1108,19 +1108,19 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>189.9691652660813</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>263.7138800015063</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1136,16 +1136,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>20.0563565644258</v>
       </c>
       <c r="E8" t="n">
-        <v>257.9330014475032</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>11.54915978824949</v>
+        <v>411.5491597882495</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1187,10 +1187,10 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.0453666896856</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1199,7 +1199,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1224,13 +1224,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>133.5587268592463</v>
+        <v>135.3351760237737</v>
       </c>
       <c r="H9" t="n">
-        <v>92.83909691614505</v>
+        <v>92.83909691614502</v>
       </c>
       <c r="I9" t="n">
-        <v>20.24979976115233</v>
+        <v>18.47335059663155</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1288,22 +1288,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>50.3457193218021</v>
+        <v>166.3072536117062</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1336,16 +1336,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>28.39805643775742</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>194.6738502503844</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>220.7514885103387</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2271897703044</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1354,7 +1354,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1433,7 +1433,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784686</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1540,10 +1540,10 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>102.1557845699798</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1588,10 +1588,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>286.5229983365925</v>
       </c>
       <c r="X13" t="n">
-        <v>22.04658882052618</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1619,7 +1619,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1765,16 +1765,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
@@ -1783,7 +1783,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>13.72582864853726</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1828,10 +1828,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>174.8605623338606</v>
       </c>
     </row>
     <row r="17">
@@ -1844,7 +1844,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
@@ -1901,7 +1901,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -2005,19 +2005,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>19.91555826189057</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,10 +2047,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>123.7971820797012</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2239,19 +2239,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>104.8913819999782</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>102.1557845699822</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2330,7 +2330,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H23" t="n">
         <v>283.1540821444137</v>
@@ -2476,19 +2476,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>108.2950343703266</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
@@ -2527,7 +2527,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>198.9107847550991</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2716,7 +2716,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2725,10 +2725,10 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>108.2950343703266</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2840,10 +2840,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695439</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576155</v>
       </c>
       <c r="U29" t="n">
         <v>250.9057009881286</v>
@@ -2950,7 +2950,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>130.1208074460232</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -2959,13 +2959,13 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>83.06560892428169</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3035,13 +3035,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722614</v>
       </c>
       <c r="F32" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
         <v>283.1540821444137</v>
@@ -3187,25 +3187,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>35.55160172423379</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3238,7 +3238,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>160.1763464053459</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
@@ -3250,7 +3250,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -3427,13 +3427,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>20.88994825141578</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -3442,7 +3442,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,10 +3469,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>55.5207962406042</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>133.3722917337063</v>
       </c>
       <c r="I40" t="n">
-        <v>9.146142788179397</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3752,7 +3752,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>409.8033385187853</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
         <v>283.1540821444137</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3834,7 +3834,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H42" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3898,25 +3898,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,10 +3943,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S43" t="n">
-        <v>108.906592471262</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
@@ -3964,7 +3964,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>112.6849016609947</v>
       </c>
     </row>
     <row r="44">
@@ -3977,13 +3977,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710066</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722596</v>
       </c>
       <c r="F44" t="n">
         <v>406.8760457417114</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4071,7 +4071,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H45" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4138,10 +4138,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -4150,7 +4150,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>83.06560892428169</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4189,7 +4189,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>286.1844743892441</v>
+        <v>74.20064764874441</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4304,46 +4304,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>788.477863438847</v>
+        <v>320.3587892151035</v>
       </c>
       <c r="C2" t="n">
-        <v>522.1002068716689</v>
+        <v>320.3587892151035</v>
       </c>
       <c r="D2" t="n">
-        <v>307.3840804899465</v>
+        <v>320.3587892151035</v>
       </c>
       <c r="E2" t="n">
-        <v>41.00642392276843</v>
+        <v>320.3587892151035</v>
       </c>
       <c r="F2" t="n">
-        <v>34.06092317356496</v>
+        <v>313.4132884659</v>
       </c>
       <c r="G2" t="n">
-        <v>21.0971104001205</v>
+        <v>287.4747669672984</v>
       </c>
       <c r="H2" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I2" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="J2" t="n">
-        <v>49.28269087917556</v>
+        <v>49.28269087917579</v>
       </c>
       <c r="K2" t="n">
         <v>142.264087905254</v>
       </c>
       <c r="L2" t="n">
-        <v>294.5174947515906</v>
+        <v>294.5174947515905</v>
       </c>
       <c r="M2" t="n">
-        <v>495.5981834030605</v>
+        <v>495.5981834030603</v>
       </c>
       <c r="N2" t="n">
-        <v>704.5463761991317</v>
+        <v>704.5463761991316</v>
       </c>
       <c r="O2" t="n">
-        <v>888.5149683358416</v>
+        <v>888.5149683358413</v>
       </c>
       <c r="P2" t="n">
         <v>1011.026904601763</v>
@@ -4358,22 +4358,22 @@
         <v>1054.855520006025</v>
       </c>
       <c r="T2" t="n">
-        <v>1054.855520006025</v>
+        <v>840.4214638411526</v>
       </c>
       <c r="U2" t="n">
-        <v>1054.855520006025</v>
+        <v>586.7364457822814</v>
       </c>
       <c r="V2" t="n">
-        <v>1054.855520006025</v>
+        <v>320.3587892151035</v>
       </c>
       <c r="W2" t="n">
-        <v>1054.855520006025</v>
+        <v>320.3587892151035</v>
       </c>
       <c r="X2" t="n">
-        <v>1054.855520006025</v>
+        <v>320.3587892151035</v>
       </c>
       <c r="Y2" t="n">
-        <v>788.477863438847</v>
+        <v>320.3587892151035</v>
       </c>
     </row>
     <row r="3">
@@ -4383,49 +4383,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>503.7220043479542</v>
+        <v>255.0869132793727</v>
       </c>
       <c r="C3" t="n">
-        <v>329.2689750668272</v>
+        <v>255.0869132793727</v>
       </c>
       <c r="D3" t="n">
-        <v>180.334565405576</v>
+        <v>255.0869132793727</v>
       </c>
       <c r="E3" t="n">
-        <v>21.0971104001205</v>
+        <v>255.0869132793727</v>
       </c>
       <c r="F3" t="n">
-        <v>21.0971104001205</v>
+        <v>108.5523553062576</v>
       </c>
       <c r="G3" t="n">
-        <v>21.0971104001205</v>
+        <v>108.5523553062576</v>
       </c>
       <c r="H3" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I3" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="J3" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="K3" t="n">
-        <v>95.78113116957469</v>
+        <v>95.78113116957465</v>
       </c>
       <c r="L3" t="n">
-        <v>242.5255548298714</v>
+        <v>338.874007230231</v>
       </c>
       <c r="M3" t="n">
-        <v>433.1262439263952</v>
+        <v>529.4746963267547</v>
       </c>
       <c r="N3" t="n">
-        <v>643.1802110290002</v>
+        <v>739.5286634293598</v>
       </c>
       <c r="O3" t="n">
-        <v>813.1187583557301</v>
+        <v>909.4672107560896</v>
       </c>
       <c r="P3" t="n">
-        <v>930.1763583891336</v>
+        <v>1026.524810789493</v>
       </c>
       <c r="Q3" t="n">
         <v>1054.855520006025</v>
@@ -4434,25 +4434,25 @@
         <v>1036.519636212815</v>
       </c>
       <c r="S3" t="n">
-        <v>1036.519636212815</v>
+        <v>887.8833378166544</v>
       </c>
       <c r="T3" t="n">
-        <v>1036.519636212815</v>
+        <v>691.074259448092</v>
       </c>
       <c r="U3" t="n">
-        <v>1036.519636212815</v>
+        <v>462.9384134849055</v>
       </c>
       <c r="V3" t="n">
-        <v>1036.519636212815</v>
+        <v>462.9384134849055</v>
       </c>
       <c r="W3" t="n">
-        <v>1036.519636212815</v>
+        <v>462.9384134849055</v>
       </c>
       <c r="X3" t="n">
-        <v>879.6976401329762</v>
+        <v>255.0869132793727</v>
       </c>
       <c r="Y3" t="n">
-        <v>671.9373413680223</v>
+        <v>255.0869132793727</v>
       </c>
     </row>
     <row r="4">
@@ -4462,46 +4462,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>267.415718665782</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="C4" t="n">
-        <v>267.415718665782</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="D4" t="n">
-        <v>267.415718665782</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="E4" t="n">
-        <v>267.415718665782</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="F4" t="n">
-        <v>267.415718665782</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="G4" t="n">
-        <v>98.84635802078549</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="H4" t="n">
-        <v>98.84635802078549</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I4" t="n">
-        <v>36.32155393434482</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="J4" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="K4" t="n">
-        <v>126.4133765287949</v>
+        <v>126.4133765287947</v>
       </c>
       <c r="L4" t="n">
-        <v>316.7083726551011</v>
+        <v>316.7083726551009</v>
       </c>
       <c r="M4" t="n">
-        <v>527.7368878375338</v>
+        <v>527.7368878375336</v>
       </c>
       <c r="N4" t="n">
-        <v>739.1822330227048</v>
+        <v>739.1822330227045</v>
       </c>
       <c r="O4" t="n">
-        <v>918.4699372075545</v>
+        <v>918.4699372075542</v>
       </c>
       <c r="P4" t="n">
         <v>1048.360858816803</v>
@@ -4510,28 +4510,28 @@
         <v>1054.855520006025</v>
       </c>
       <c r="R4" t="n">
-        <v>1054.855520006025</v>
+        <v>926.0629918407075</v>
       </c>
       <c r="S4" t="n">
-        <v>1054.855520006025</v>
+        <v>926.0629918407075</v>
       </c>
       <c r="T4" t="n">
-        <v>1054.855520006025</v>
+        <v>926.0629918407075</v>
       </c>
       <c r="U4" t="n">
-        <v>788.477863438847</v>
+        <v>659.6853352735295</v>
       </c>
       <c r="V4" t="n">
-        <v>533.7933752329601</v>
+        <v>430.7351261283775</v>
       </c>
       <c r="W4" t="n">
-        <v>267.415718665782</v>
+        <v>430.7351261283775</v>
       </c>
       <c r="X4" t="n">
-        <v>267.415718665782</v>
+        <v>202.7455752303602</v>
       </c>
       <c r="Y4" t="n">
-        <v>267.415718665782</v>
+        <v>202.7455752303602</v>
       </c>
     </row>
     <row r="5">
@@ -4541,46 +4541,46 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>840.1393936243026</v>
+        <v>423.8554133656</v>
       </c>
       <c r="C5" t="n">
-        <v>573.7617370571245</v>
+        <v>423.8554133656</v>
       </c>
       <c r="D5" t="n">
-        <v>307.3840804899465</v>
+        <v>423.8554133656</v>
       </c>
       <c r="E5" t="n">
-        <v>41.00642392276843</v>
+        <v>157.4777567984221</v>
       </c>
       <c r="F5" t="n">
-        <v>34.06092317356496</v>
+        <v>150.5322560492186</v>
       </c>
       <c r="G5" t="n">
-        <v>21.0971104001205</v>
+        <v>137.5684432757742</v>
       </c>
       <c r="H5" t="n">
-        <v>21.0971104001205</v>
+        <v>137.5684432757742</v>
       </c>
       <c r="I5" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="J5" t="n">
-        <v>49.28269087917579</v>
+        <v>49.28269087917624</v>
       </c>
       <c r="K5" t="n">
-        <v>142.2640879052542</v>
+        <v>142.2640879052547</v>
       </c>
       <c r="L5" t="n">
-        <v>294.5174947515907</v>
+        <v>294.5174947515912</v>
       </c>
       <c r="M5" t="n">
-        <v>495.5981834030605</v>
+        <v>495.5981834030611</v>
       </c>
       <c r="N5" t="n">
-        <v>704.5463761991319</v>
+        <v>704.5463761991323</v>
       </c>
       <c r="O5" t="n">
-        <v>888.5149683358417</v>
+        <v>888.5149683358418</v>
       </c>
       <c r="P5" t="n">
         <v>1011.026904601763</v>
@@ -4595,22 +4595,22 @@
         <v>1054.855520006025</v>
       </c>
       <c r="T5" t="n">
-        <v>1054.855520006025</v>
+        <v>956.6107264999559</v>
       </c>
       <c r="U5" t="n">
-        <v>1054.855520006025</v>
+        <v>956.6107264999559</v>
       </c>
       <c r="V5" t="n">
-        <v>1054.855520006025</v>
+        <v>690.233069932778</v>
       </c>
       <c r="W5" t="n">
-        <v>1054.855520006025</v>
+        <v>690.233069932778</v>
       </c>
       <c r="X5" t="n">
-        <v>1054.855520006025</v>
+        <v>690.233069932778</v>
       </c>
       <c r="Y5" t="n">
-        <v>1054.855520006025</v>
+        <v>423.8554133656</v>
       </c>
     </row>
     <row r="6">
@@ -4620,49 +4620,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>149.854256075594</v>
+        <v>195.5501396812475</v>
       </c>
       <c r="C6" t="n">
-        <v>149.854256075594</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="D6" t="n">
-        <v>149.854256075594</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="E6" t="n">
-        <v>149.854256075594</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="F6" t="n">
-        <v>149.854256075594</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="G6" t="n">
-        <v>149.854256075594</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="H6" t="n">
-        <v>65.46256898749988</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I6" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="J6" t="n">
-        <v>117.4455628004804</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="K6" t="n">
-        <v>192.1295835699346</v>
+        <v>95.78113116957459</v>
       </c>
       <c r="L6" t="n">
-        <v>338.8740072302313</v>
+        <v>242.5255548298712</v>
       </c>
       <c r="M6" t="n">
-        <v>529.4746963267552</v>
+        <v>433.126243926395</v>
       </c>
       <c r="N6" t="n">
-        <v>739.5286634293602</v>
+        <v>643.1802110289999</v>
       </c>
       <c r="O6" t="n">
-        <v>909.46721075609</v>
+        <v>813.1187583557296</v>
       </c>
       <c r="P6" t="n">
-        <v>1026.524810789494</v>
+        <v>930.176358389133</v>
       </c>
       <c r="Q6" t="n">
         <v>1054.855520006025</v>
@@ -4671,25 +4671,25 @@
         <v>1054.855520006025</v>
       </c>
       <c r="S6" t="n">
-        <v>1054.855520006025</v>
+        <v>906.2192216098642</v>
       </c>
       <c r="T6" t="n">
-        <v>1054.855520006025</v>
+        <v>709.4101432413019</v>
       </c>
       <c r="U6" t="n">
-        <v>1054.855520006025</v>
+        <v>481.2742972781153</v>
       </c>
       <c r="V6" t="n">
-        <v>819.7034117742824</v>
+        <v>246.1221890463726</v>
       </c>
       <c r="W6" t="n">
-        <v>565.4660550460808</v>
+        <v>246.1221890463726</v>
       </c>
       <c r="X6" t="n">
-        <v>357.614554840548</v>
+        <v>246.1221890463726</v>
       </c>
       <c r="Y6" t="n">
-        <v>149.854256075594</v>
+        <v>195.5501396812475</v>
       </c>
     </row>
     <row r="7">
@@ -4699,46 +4699,46 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>169.0102039825136</v>
+        <v>224.9087497860236</v>
       </c>
       <c r="C7" t="n">
-        <v>169.0102039825136</v>
+        <v>55.97256685811666</v>
       </c>
       <c r="D7" t="n">
-        <v>169.0102039825136</v>
+        <v>55.97256685811666</v>
       </c>
       <c r="E7" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="F7" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="G7" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="H7" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I7" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="J7" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="K7" t="n">
-        <v>126.4133765287949</v>
+        <v>126.4133765287947</v>
       </c>
       <c r="L7" t="n">
-        <v>316.7083726551011</v>
+        <v>316.7083726551009</v>
       </c>
       <c r="M7" t="n">
-        <v>527.7368878375338</v>
+        <v>527.7368878375336</v>
       </c>
       <c r="N7" t="n">
-        <v>739.1822330227048</v>
+        <v>739.1822330227046</v>
       </c>
       <c r="O7" t="n">
-        <v>918.4699372075545</v>
+        <v>918.4699372075543</v>
       </c>
       <c r="P7" t="n">
         <v>1048.360858816803</v>
@@ -4747,28 +4747,28 @@
         <v>1054.855520006025</v>
       </c>
       <c r="R7" t="n">
-        <v>1054.855520006025</v>
+        <v>926.0629918407075</v>
       </c>
       <c r="S7" t="n">
-        <v>848.0684854165363</v>
+        <v>719.2759572512189</v>
       </c>
       <c r="T7" t="n">
-        <v>848.0684854165363</v>
+        <v>719.2759572512189</v>
       </c>
       <c r="U7" t="n">
-        <v>656.1804396932218</v>
+        <v>719.2759572512189</v>
       </c>
       <c r="V7" t="n">
-        <v>656.1804396932218</v>
+        <v>719.2759572512189</v>
       </c>
       <c r="W7" t="n">
-        <v>389.8027831260437</v>
+        <v>452.8983006840409</v>
       </c>
       <c r="X7" t="n">
-        <v>389.8027831260437</v>
+        <v>224.9087497860236</v>
       </c>
       <c r="Y7" t="n">
-        <v>169.0102039825136</v>
+        <v>224.9087497860236</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1057.589174771658</v>
+        <v>863.0844409294764</v>
       </c>
       <c r="C8" t="n">
-        <v>688.6266578312468</v>
+        <v>494.1219239890647</v>
       </c>
       <c r="D8" t="n">
-        <v>330.3609592244963</v>
+        <v>473.8629779643921</v>
       </c>
       <c r="E8" t="n">
-        <v>69.82257392398797</v>
+        <v>473.8629779643921</v>
       </c>
       <c r="F8" t="n">
-        <v>62.87707317478451</v>
+        <v>466.9174772151887</v>
       </c>
       <c r="G8" t="n">
-        <v>51.21125520685572</v>
+        <v>51.21125520685586</v>
       </c>
       <c r="H8" t="n">
-        <v>51.21125520685572</v>
+        <v>51.21125520685586</v>
       </c>
       <c r="I8" t="n">
-        <v>51.21125520685572</v>
+        <v>51.21125520685586</v>
       </c>
       <c r="J8" t="n">
-        <v>187.3702251467173</v>
+        <v>187.370225146718</v>
       </c>
       <c r="K8" t="n">
-        <v>442.1757437607426</v>
+        <v>442.1757437607441</v>
       </c>
       <c r="L8" t="n">
-        <v>795.1862829045936</v>
+        <v>795.1862829045958</v>
       </c>
       <c r="M8" t="n">
-        <v>1219.647962995228</v>
+        <v>1219.647962995231</v>
       </c>
       <c r="N8" t="n">
-        <v>1655.591685209586</v>
+        <v>1655.59168520959</v>
       </c>
       <c r="O8" t="n">
-        <v>2053.905718940598</v>
+        <v>2053.905718940603</v>
       </c>
       <c r="P8" t="n">
-        <v>2359.356530550201</v>
+        <v>2359.356530550207</v>
       </c>
       <c r="Q8" t="n">
-        <v>2540.564622661167</v>
+        <v>2540.564622661173</v>
       </c>
       <c r="R8" t="n">
-        <v>2560.562760342786</v>
+        <v>2560.562760342793</v>
       </c>
       <c r="S8" t="n">
-        <v>2560.562760342786</v>
+        <v>2560.562760342793</v>
       </c>
       <c r="T8" t="n">
-        <v>2560.562760342786</v>
+        <v>2560.562760342793</v>
       </c>
       <c r="U8" t="n">
-        <v>2560.562760342786</v>
+        <v>2306.981581868363</v>
       </c>
       <c r="V8" t="n">
-        <v>2560.562760342786</v>
+        <v>1975.918694524792</v>
       </c>
       <c r="W8" t="n">
-        <v>2207.794105072672</v>
+        <v>1623.150039254678</v>
       </c>
       <c r="X8" t="n">
-        <v>1834.328346811592</v>
+        <v>1249.684280993598</v>
       </c>
       <c r="Y8" t="n">
-        <v>1444.18901483578</v>
+        <v>1249.684280993598</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>929.5097208010809</v>
+        <v>929.5097208010877</v>
       </c>
       <c r="C9" t="n">
-        <v>755.0566915199539</v>
+        <v>755.0566915199607</v>
       </c>
       <c r="D9" t="n">
-        <v>606.1222818587026</v>
+        <v>606.1222818587095</v>
       </c>
       <c r="E9" t="n">
-        <v>446.8848268532471</v>
+        <v>446.884826853254</v>
       </c>
       <c r="F9" t="n">
-        <v>300.3502688801321</v>
+        <v>300.350268880139</v>
       </c>
       <c r="G9" t="n">
-        <v>165.4424639718026</v>
+        <v>163.6480708763272</v>
       </c>
       <c r="H9" t="n">
-        <v>71.66559839993889</v>
+        <v>69.87120530446349</v>
       </c>
       <c r="I9" t="n">
-        <v>51.21125520685572</v>
+        <v>51.21125520685586</v>
       </c>
       <c r="J9" t="n">
-        <v>238.3188829507237</v>
+        <v>113.4887579637193</v>
       </c>
       <c r="K9" t="n">
-        <v>613.7598241331832</v>
+        <v>559.9063389572718</v>
       </c>
       <c r="L9" t="n">
-        <v>908.2958075666647</v>
+        <v>854.4423223907539</v>
       </c>
       <c r="M9" t="n">
-        <v>1271.362276040966</v>
+        <v>1271.362276040971</v>
       </c>
       <c r="N9" t="n">
-        <v>1658.446678513536</v>
+        <v>1658.446678513541</v>
       </c>
       <c r="O9" t="n">
-        <v>1990.333488500926</v>
+        <v>1990.333488500931</v>
       </c>
       <c r="P9" t="n">
-        <v>2237.36884693055</v>
+        <v>2237.368846930557</v>
       </c>
       <c r="Q9" t="n">
-        <v>2560.562760342786</v>
+        <v>2560.562760342793</v>
       </c>
       <c r="R9" t="n">
-        <v>2560.562760342786</v>
+        <v>2560.562760342793</v>
       </c>
       <c r="S9" t="n">
-        <v>2424.826280251702</v>
+        <v>2424.826280251708</v>
       </c>
       <c r="T9" t="n">
-        <v>2230.81647768535</v>
+        <v>2230.816477685357</v>
       </c>
       <c r="U9" t="n">
-        <v>2002.72632175158</v>
+        <v>2002.726321751587</v>
       </c>
       <c r="V9" t="n">
-        <v>1767.574213519837</v>
+        <v>1767.574213519844</v>
       </c>
       <c r="W9" t="n">
-        <v>1513.336856791636</v>
+        <v>1513.336856791643</v>
       </c>
       <c r="X9" t="n">
-        <v>1305.485356586103</v>
+        <v>1305.48535658611</v>
       </c>
       <c r="Y9" t="n">
-        <v>1097.725057821149</v>
+        <v>1097.725057821156</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>715.9213805686161</v>
+        <v>388.1345629950721</v>
       </c>
       <c r="C10" t="n">
-        <v>546.9851976407092</v>
+        <v>219.1983800671651</v>
       </c>
       <c r="D10" t="n">
-        <v>396.8685582283734</v>
+        <v>219.1983800671651</v>
       </c>
       <c r="E10" t="n">
-        <v>248.9554646459803</v>
+        <v>219.1983800671651</v>
       </c>
       <c r="F10" t="n">
-        <v>102.06551714807</v>
+        <v>219.1983800671651</v>
       </c>
       <c r="G10" t="n">
-        <v>51.21125520685572</v>
+        <v>51.21125520685586</v>
       </c>
       <c r="H10" t="n">
-        <v>51.21125520685572</v>
+        <v>51.21125520685586</v>
       </c>
       <c r="I10" t="n">
-        <v>51.21125520685572</v>
+        <v>51.21125520685586</v>
       </c>
       <c r="J10" t="n">
-        <v>76.63468308380162</v>
+        <v>76.63468308380189</v>
       </c>
       <c r="K10" t="n">
-        <v>248.250021567657</v>
+        <v>248.2500215676575</v>
       </c>
       <c r="L10" t="n">
-        <v>523.3850043368923</v>
+        <v>523.3850043368932</v>
       </c>
       <c r="M10" t="n">
-        <v>823.865389990404</v>
+        <v>823.8653899904052</v>
       </c>
       <c r="N10" t="n">
-        <v>1122.635640101613</v>
+        <v>1122.635640101615</v>
       </c>
       <c r="O10" t="n">
-        <v>1382.582027931092</v>
+        <v>1382.582027931094</v>
       </c>
       <c r="P10" t="n">
-        <v>1581.490387616501</v>
+        <v>1581.490387616503</v>
       </c>
       <c r="Q10" t="n">
-        <v>1635.769145477364</v>
+        <v>1635.769145477366</v>
       </c>
       <c r="R10" t="n">
-        <v>1635.769145477364</v>
+        <v>1607.084239984682</v>
       </c>
       <c r="S10" t="n">
-        <v>1635.769145477364</v>
+        <v>1410.443987206516</v>
       </c>
       <c r="T10" t="n">
-        <v>1635.769145477364</v>
+        <v>1187.462685680921</v>
       </c>
       <c r="U10" t="n">
-        <v>1635.769145477364</v>
+        <v>898.3443121755629</v>
       </c>
       <c r="V10" t="n">
-        <v>1635.769145477364</v>
+        <v>898.3443121755629</v>
       </c>
       <c r="W10" t="n">
-        <v>1346.351975440403</v>
+        <v>608.9271421386022</v>
       </c>
       <c r="X10" t="n">
-        <v>1118.362424542386</v>
+        <v>608.9271421386022</v>
       </c>
       <c r="Y10" t="n">
-        <v>897.5698453988558</v>
+        <v>388.1345629950721</v>
       </c>
     </row>
     <row r="11">
@@ -5024,22 +5024,22 @@
         <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
         <v>852.8523611075809</v>
@@ -5051,16 +5051,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
@@ -5075,10 +5075,10 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
         <v>3094.515198591809</v>
@@ -5115,31 +5115,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M12" t="n">
-        <v>1344.266747951537</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N12" t="n">
-        <v>1344.266747951537</v>
+        <v>2149.810879820877</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190824</v>
+        <v>2149.810879820877</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,22 +5173,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>719.5738700011939</v>
+        <v>513.8536007400696</v>
       </c>
       <c r="C13" t="n">
-        <v>550.637687073287</v>
+        <v>344.9174178121627</v>
       </c>
       <c r="D13" t="n">
-        <v>550.637687073287</v>
+        <v>344.9174178121627</v>
       </c>
       <c r="E13" t="n">
-        <v>402.7245934908938</v>
+        <v>197.0043242297696</v>
       </c>
       <c r="F13" t="n">
-        <v>402.7245934908938</v>
+        <v>197.0043242297696</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H13" t="n">
         <v>93.81666304797187</v>
@@ -5197,52 +5197,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611857</v>
       </c>
       <c r="X13" t="n">
-        <v>1122.014913974964</v>
+        <v>916.2946447138395</v>
       </c>
       <c r="Y13" t="n">
-        <v>901.2223348314336</v>
+        <v>695.5020655703094</v>
       </c>
     </row>
     <row r="14">
@@ -5258,13 +5258,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
@@ -5276,22 +5276,22 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694707</v>
@@ -5312,13 +5312,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5352,31 +5352,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>172.349019141113</v>
       </c>
       <c r="K15" t="n">
-        <v>427.7414352191925</v>
+        <v>506.2737913123336</v>
       </c>
       <c r="L15" t="n">
-        <v>923.0670414349511</v>
+        <v>506.2737913123336</v>
       </c>
       <c r="M15" t="n">
-        <v>1520.445529061503</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N15" t="n">
-        <v>1896.176478190825</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190825</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>741.8431516380886</v>
+        <v>558.0193492433381</v>
       </c>
       <c r="C16" t="n">
-        <v>572.9069687101817</v>
+        <v>558.0193492433381</v>
       </c>
       <c r="D16" t="n">
-        <v>422.7903292978459</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E16" t="n">
-        <v>274.8772357154528</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F16" t="n">
-        <v>274.8772357154528</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G16" t="n">
-        <v>107.6811364303327</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H16" t="n">
-        <v>107.6811364303327</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
@@ -5476,10 +5476,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>1144.284195611858</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>923.4916164683283</v>
+        <v>739.6678140735778</v>
       </c>
     </row>
     <row r="17">
@@ -5549,13 +5549,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5589,31 +5589,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K18" t="n">
-        <v>427.7414352191925</v>
+        <v>214.9229991561138</v>
       </c>
       <c r="L18" t="n">
-        <v>923.0670414349511</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M18" t="n">
-        <v>1520.445529061503</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N18" t="n">
-        <v>2148.04349261611</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O18" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>571.6607764188008</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C19" t="n">
-        <v>402.7245934908939</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D19" t="n">
-        <v>402.7245934908939</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="E19" t="n">
-        <v>402.7245934908939</v>
+        <v>113.9333885650331</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908939</v>
+        <v>113.9333885650331</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>113.9333885650331</v>
       </c>
       <c r="H19" t="n">
         <v>93.81666304797187</v>
@@ -5671,52 +5671,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782942</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038328</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797729</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.150240910807</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570816</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279801</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580259</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832661</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
-        <v>2254.869721166297</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T19" t="n">
-        <v>2035.268256189238</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U19" t="n">
-        <v>1746.193029533436</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V19" t="n">
-        <v>1491.508541327549</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W19" t="n">
-        <v>1202.091371290588</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X19" t="n">
-        <v>974.1018203925706</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y19" t="n">
-        <v>753.3092412490405</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="20">
@@ -5744,43 +5744,43 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U20" t="n">
         <v>4151.812499466573</v>
@@ -5814,7 +5814,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5823,34 +5823,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K21" t="n">
-        <v>245.2306927803937</v>
+        <v>427.7414352191926</v>
       </c>
       <c r="L21" t="n">
-        <v>740.5562989961525</v>
+        <v>427.7414352191926</v>
       </c>
       <c r="M21" t="n">
-        <v>1337.934786622704</v>
+        <v>1025.119922845745</v>
       </c>
       <c r="N21" t="n">
-        <v>1577.52840832642</v>
+        <v>1652.717886400352</v>
       </c>
       <c r="O21" t="n">
-        <v>2129.438138565707</v>
+        <v>2204.627616639639</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400721</v>
       </c>
       <c r="C22" t="n">
-        <v>407.9027098310023</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="D22" t="n">
-        <v>407.9027098310023</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E22" t="n">
-        <v>407.9027098310023</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="F22" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138411</v>
+        <v>916.294644713842</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703119</v>
       </c>
     </row>
     <row r="23">
@@ -5969,37 +5969,37 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J23" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6075,19 +6075,19 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1671.859558793925</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N24" t="n">
-        <v>2299.457522348532</v>
+        <v>1702.079034721979</v>
       </c>
       <c r="O24" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P24" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,19 +6121,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400712</v>
+        <v>532.5350811160199</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121643</v>
+        <v>532.5350811160199</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121643</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121643</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F25" t="n">
-        <v>344.9174178121643</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G25" t="n">
         <v>235.5284942057738</v>
@@ -6175,22 +6175,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>1996.142560886457</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1707.067334230655</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1452.382846024768</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>1162.965675987807</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138411</v>
+        <v>934.9761250897898</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703109</v>
+        <v>714.1835459462596</v>
       </c>
     </row>
     <row r="26">
@@ -6221,22 +6221,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J26" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
@@ -6245,7 +6245,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
@@ -6303,16 +6303,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="M27" t="n">
-        <v>680.0291294438176</v>
+        <v>1174.766565373399</v>
       </c>
       <c r="N27" t="n">
         <v>1307.627092998424</v>
@@ -6364,16 +6364,16 @@
         <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E28" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F28" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
         <v>93.81666304797187</v>
@@ -6455,16 +6455,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6491,7 +6491,7 @@
         <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U29" t="n">
         <v>4151.812499466573</v>
@@ -6534,28 +6534,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797186</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797186</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L30" t="n">
-        <v>93.81666304797186</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M30" t="n">
-        <v>680.0291294438176</v>
+        <v>840.8417932021785</v>
       </c>
       <c r="N30" t="n">
-        <v>1307.627092998424</v>
+        <v>1468.439756756785</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>2020.349486996072</v>
       </c>
       <c r="P30" t="n">
         <v>2283.159972732779</v>
@@ -6598,25 +6598,25 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>344.9174178121643</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="D31" t="n">
-        <v>344.9174178121643</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="E31" t="n">
-        <v>344.9174178121643</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F31" t="n">
-        <v>344.9174178121643</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G31" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
@@ -6683,10 +6683,10 @@
         <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362686</v>
@@ -6695,13 +6695,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6774,22 +6774,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>579.1554649516142</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>680.0291294438176</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N33" t="n">
-        <v>1307.627092998424</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O33" t="n">
         <v>1859.536823237711</v>
@@ -6832,25 +6832,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>571.6607764188008</v>
+        <v>741.8431516380886</v>
       </c>
       <c r="C34" t="n">
-        <v>402.7245934908939</v>
+        <v>741.8431516380886</v>
       </c>
       <c r="D34" t="n">
-        <v>402.7245934908939</v>
+        <v>591.7265122257528</v>
       </c>
       <c r="E34" t="n">
-        <v>402.7245934908939</v>
+        <v>443.8134186433597</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908939</v>
+        <v>296.9234711454493</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>129.7273718603292</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>129.7273718603292</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6886,22 +6886,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>974.1018203925706</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="Y34" t="n">
-        <v>753.3092412490405</v>
+        <v>923.4916164683283</v>
       </c>
     </row>
     <row r="35">
@@ -6938,13 +6938,13 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
         <v>2950.898526355937</v>
@@ -7014,10 +7014,10 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803937</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516142</v>
+        <v>184.7035232280589</v>
       </c>
       <c r="L36" t="n">
         <v>680.0291294438176</v>
@@ -7069,25 +7069,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>707.672526468518</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>538.7363435406111</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>388.6197041282753</v>
+        <v>323.8164599824514</v>
       </c>
       <c r="E37" t="n">
-        <v>240.7066105458822</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="F37" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G37" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7117,28 +7117,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2390.881471216014</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2171.280006238955</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1882.204779583153</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1627.520291377266</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1338.103121340305</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>1110.113570442288</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>889.3209912987577</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7169,22 +7169,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
@@ -7193,7 +7193,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
@@ -7248,22 +7248,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>95.58405025273903</v>
+        <v>139.234765840794</v>
       </c>
       <c r="K39" t="n">
-        <v>429.5088224239596</v>
+        <v>139.234765840794</v>
       </c>
       <c r="L39" t="n">
-        <v>429.5088224239596</v>
+        <v>634.5603720565526</v>
       </c>
       <c r="M39" t="n">
-        <v>680.0291294438176</v>
+        <v>1231.938859683105</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O39" t="n">
         <v>1859.536823237711</v>
@@ -7306,25 +7306,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>580.8993044876688</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C40" t="n">
-        <v>411.9631215597619</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="D40" t="n">
-        <v>411.9631215597619</v>
+        <v>376.4492432300683</v>
       </c>
       <c r="E40" t="n">
-        <v>411.9631215597619</v>
+        <v>228.5361496476752</v>
       </c>
       <c r="F40" t="n">
-        <v>411.9631215597619</v>
+        <v>228.5361496476752</v>
       </c>
       <c r="G40" t="n">
-        <v>244.7670222746419</v>
+        <v>228.5361496476752</v>
       </c>
       <c r="H40" t="n">
-        <v>103.0551911168399</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7354,28 +7354,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075822</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="42">
@@ -7473,7 +7473,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7482,31 +7482,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
         <v>95.58405025273902</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803937</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516142</v>
+        <v>429.5088224239595</v>
       </c>
       <c r="L42" t="n">
-        <v>1074.481071167373</v>
+        <v>924.8344286397181</v>
       </c>
       <c r="M42" t="n">
-        <v>1671.859558793925</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N42" t="n">
-        <v>2299.457522348532</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="O42" t="n">
-        <v>2516.421633107662</v>
+        <v>2074.122646505557</v>
       </c>
       <c r="P42" t="n">
-        <v>2516.421633107662</v>
+        <v>2497.745796000625</v>
       </c>
       <c r="Q42" t="n">
         <v>2516.421633107662</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>653.7474797708871</v>
+        <v>620.8230468926976</v>
       </c>
       <c r="C43" t="n">
-        <v>484.8112968429802</v>
+        <v>620.8230468926976</v>
       </c>
       <c r="D43" t="n">
-        <v>484.8112968429802</v>
+        <v>470.7064074803618</v>
       </c>
       <c r="E43" t="n">
-        <v>484.8112968429802</v>
+        <v>322.7933138979687</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429802</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578601</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.56011257082</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279805</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
-        <v>2327.764848853364</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580264</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.963083580264</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2336.956424518383</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2117.354959541324</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1828.279732885522</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1573.595244679635</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1284.178074642674</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>1056.188523744657</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>835.3959446011269</v>
+        <v>802.4715117229373</v>
       </c>
     </row>
     <row r="44">
@@ -7622,13 +7622,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551873</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611461</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004711</v>
       </c>
       <c r="E44" t="n">
         <v>1204.759558406469</v>
@@ -7637,31 +7637,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014777</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355935</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068008</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694706</v>
@@ -7670,28 +7670,28 @@
         <v>4562.265728852254</v>
       </c>
       <c r="R44" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398592</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492576</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474782</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466571</v>
       </c>
       <c r="V44" t="n">
         <v>3820.749612123001</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852886</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591806</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615995</v>
       </c>
     </row>
     <row r="45">
@@ -7719,28 +7719,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797186</v>
+        <v>427.7414352191923</v>
       </c>
       <c r="L45" t="n">
-        <v>93.81666304797186</v>
+        <v>506.2737913123343</v>
       </c>
       <c r="M45" t="n">
-        <v>680.0291294438176</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P45" t="n">
         <v>2283.159972732779</v>
@@ -7780,37 +7780,37 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400712</v>
+        <v>727.9786782557276</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9174178121643</v>
+        <v>559.0424953278207</v>
       </c>
       <c r="D46" t="n">
-        <v>344.9174178121643</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E46" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F46" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G46" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782956</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
@@ -7837,19 +7837,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854706</v>
+        <v>1902.510931370362</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.701365648819</v>
+        <v>1647.826443164475</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611858</v>
+        <v>1358.409273127515</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138411</v>
+        <v>1130.419722229497</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703109</v>
+        <v>909.6271430859673</v>
       </c>
     </row>
   </sheetData>
@@ -8000,7 +8000,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>60.51967546761151</v>
+        <v>60.51967546761153</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8055,13 +8055,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>2.051220519418237</v>
+        <v>2.051220519418266</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>97.32166909127238</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -8076,7 +8076,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>97.32166909127268</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8137,7 +8137,7 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K4" t="n">
-        <v>106.7437663446527</v>
+        <v>106.7437663446525</v>
       </c>
       <c r="L4" t="n">
         <v>162.4747015415544</v>
@@ -8146,7 +8146,7 @@
         <v>178.5096609094456</v>
       </c>
       <c r="N4" t="n">
-        <v>171.8177168444618</v>
+        <v>171.8177168444617</v>
       </c>
       <c r="O4" t="n">
         <v>163.0416663658825</v>
@@ -8237,7 +8237,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>60.51967546761151</v>
+        <v>60.51967546761156</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8292,7 +8292,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>99.37288961069086</v>
+        <v>2.051220519418294</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -8313,7 +8313,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>97.32166909127285</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8529,16 +8529,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>192.7716614458182</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>54.39745977365158</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
@@ -8553,7 +8553,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
-        <v>20.98618304348501</v>
+        <v>20.98618304348486</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -11060,7 +11060,7 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>1.70530256582424e-12</v>
       </c>
       <c r="L41" t="n">
         <v>0</v>
@@ -11072,7 +11072,7 @@
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>-6.821210263296962e-13</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
         <v>0</v>
@@ -23428,13 +23428,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>63.36835372228907</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23479,7 +23479,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>203.663066568511</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23507,7 +23507,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -23653,16 +23653,16 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23671,7 +23671,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>67.54000767002827</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23716,10 +23716,10 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>43.72409101823416</v>
       </c>
     </row>
     <row r="17">
@@ -23893,19 +23893,19 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>120.3791545843333</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856553</v>
@@ -23935,10 +23935,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>57.22910392194335</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -24127,25 +24127,25 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>62.35543909864963</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>46.45968844823011</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24364,19 +24364,19 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>57.22910392194223</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -24415,7 +24415,7 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>18.49466557218921</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24604,7 +24604,7 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>65.54986409393068</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24613,10 +24613,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -24838,7 +24838,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>37.12601365260466</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -24847,13 +24847,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -25075,25 +25075,25 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>45.71423459433174</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25126,7 +25126,7 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>57.22910392194237</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25138,7 +25138,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25315,13 +25315,13 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>127.7255247667966</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
@@ -25330,7 +25330,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,10 +25357,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>125.5054897610404</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25546,28 +25546,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>6.922421112517611</v>
       </c>
       <c r="I40" t="n">
-        <v>72.11969353038614</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,7 +25594,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25786,22 +25786,22 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -25831,10 +25831,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>72.11969353038262</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25852,7 +25852,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>105.8997516911001</v>
       </c>
     </row>
     <row r="44">
@@ -26026,10 +26026,10 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
@@ -26038,10 +26038,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>57.2291039219422</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26077,7 +26077,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>211.9838267404998</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>796117.0941729409</v>
+        <v>796117.0941729408</v>
       </c>
     </row>
     <row r="16">
@@ -26311,10 +26311,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>636307.3716448201</v>
+        <v>636307.3716448199</v>
       </c>
       <c r="C2" t="n">
-        <v>636307.3716448197</v>
+        <v>636307.3716448199</v>
       </c>
       <c r="D2" t="n">
         <v>636307.3716448193</v>
@@ -26323,13 +26323,13 @@
         <v>625538.6147597549</v>
       </c>
       <c r="F2" t="n">
+        <v>625538.6147597551</v>
+      </c>
+      <c r="G2" t="n">
         <v>625538.6147597549</v>
       </c>
-      <c r="G2" t="n">
-        <v>625538.6147597545</v>
-      </c>
       <c r="H2" t="n">
-        <v>625538.6147597549</v>
+        <v>625538.614759755</v>
       </c>
       <c r="I2" t="n">
         <v>625538.6147597549</v>
@@ -26338,22 +26338,22 @@
         <v>625538.6147597549</v>
       </c>
       <c r="K2" t="n">
-        <v>625538.6147597546</v>
+        <v>625538.6147597549</v>
       </c>
       <c r="L2" t="n">
         <v>625538.6147597549</v>
       </c>
       <c r="M2" t="n">
+        <v>625538.6147597549</v>
+      </c>
+      <c r="N2" t="n">
         <v>625538.6147597547</v>
       </c>
-      <c r="N2" t="n">
+      <c r="O2" t="n">
+        <v>625538.6147597547</v>
+      </c>
+      <c r="P2" t="n">
         <v>625538.6147597549</v>
-      </c>
-      <c r="O2" t="n">
-        <v>625538.6147597545</v>
-      </c>
-      <c r="P2" t="n">
-        <v>625538.6147597547</v>
       </c>
     </row>
     <row r="3">
@@ -26363,16 +26363,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>680087.9805911932</v>
+        <v>680087.9805911931</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>390680.0076580796</v>
+        <v>390680.0076580814</v>
       </c>
       <c r="E3" t="n">
-        <v>507909.2320606927</v>
+        <v>507909.2320606911</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26381,28 +26381,28 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>3.482032298052218e-10</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>68999.1544191141</v>
+        <v>68999.15441911407</v>
       </c>
       <c r="K3" t="n">
-        <v>2.574418839027077e-11</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>95270.23779101786</v>
+        <v>95270.23779101825</v>
       </c>
       <c r="M3" t="n">
-        <v>132717.9756954688</v>
+        <v>132717.9756954684</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>5.229288266773751e-11</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26418,10 +26418,10 @@
         <v>249437.9663307044</v>
       </c>
       <c r="C4" t="n">
-        <v>249437.9663307044</v>
+        <v>249437.9663307045</v>
       </c>
       <c r="D4" t="n">
-        <v>138058.0537608929</v>
+        <v>138058.0537608924</v>
       </c>
       <c r="E4" t="n">
         <v>9947.144321768897</v>
@@ -26430,22 +26430,22 @@
         <v>9947.144321768897</v>
       </c>
       <c r="G4" t="n">
-        <v>9947.144321768897</v>
+        <v>9947.144321768912</v>
       </c>
       <c r="H4" t="n">
         <v>9947.144321768897</v>
       </c>
       <c r="I4" t="n">
-        <v>9947.144321768897</v>
+        <v>9947.144321768921</v>
       </c>
       <c r="J4" t="n">
         <v>9947.144321768897</v>
       </c>
       <c r="K4" t="n">
-        <v>9947.144321768939</v>
+        <v>9947.144321768923</v>
       </c>
       <c r="L4" t="n">
-        <v>9947.144321768921</v>
+        <v>9947.144321768916</v>
       </c>
       <c r="M4" t="n">
         <v>9947.144321768897</v>
@@ -26454,10 +26454,10 @@
         <v>9947.144321768897</v>
       </c>
       <c r="O4" t="n">
-        <v>9947.144321768981</v>
+        <v>9947.144321768948</v>
       </c>
       <c r="P4" t="n">
-        <v>9947.144321768941</v>
+        <v>9947.144321768999</v>
       </c>
     </row>
     <row r="5">
@@ -26467,13 +26467,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>63047.80320426621</v>
+        <v>63047.80320426619</v>
       </c>
       <c r="C5" t="n">
-        <v>63047.80320426621</v>
+        <v>63047.80320426619</v>
       </c>
       <c r="D5" t="n">
-        <v>92902.86757567902</v>
+        <v>92902.86757567915</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-356266.3784813437</v>
+        <v>-356266.3784813438</v>
       </c>
       <c r="C6" t="n">
-        <v>323821.6021098491</v>
+        <v>323821.6021098492</v>
       </c>
       <c r="D6" t="n">
-        <v>14666.44265016772</v>
+        <v>14666.44265016631</v>
       </c>
       <c r="E6" t="n">
-        <v>6559.70855338611</v>
+        <v>6524.970627952047</v>
       </c>
       <c r="F6" t="n">
-        <v>514468.9406140791</v>
+        <v>514434.2026886434</v>
       </c>
       <c r="G6" t="n">
-        <v>514468.9406140785</v>
+        <v>514434.2026886431</v>
       </c>
       <c r="H6" t="n">
-        <v>514468.9406140788</v>
+        <v>514434.2026886429</v>
       </c>
       <c r="I6" t="n">
-        <v>514468.9406140788</v>
+        <v>514434.2026886435</v>
       </c>
       <c r="J6" t="n">
-        <v>445469.7861949647</v>
+        <v>445435.048269529</v>
       </c>
       <c r="K6" t="n">
-        <v>514468.9406140787</v>
+        <v>514434.2026886431</v>
       </c>
       <c r="L6" t="n">
-        <v>419198.702823061</v>
+        <v>419163.9648976249</v>
       </c>
       <c r="M6" t="n">
-        <v>381750.9649186099</v>
+        <v>381716.2269931747</v>
       </c>
       <c r="N6" t="n">
-        <v>514468.9406140788</v>
+        <v>514434.202688643</v>
       </c>
       <c r="O6" t="n">
-        <v>514468.9406140784</v>
+        <v>514434.2026886431</v>
       </c>
       <c r="P6" t="n">
-        <v>514468.9406140788</v>
+        <v>514434.2026886432</v>
       </c>
     </row>
   </sheetData>
@@ -26710,10 +26710,10 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26722,10 +26722,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>6.536610333467188e-14</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>3.318586784683342e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -26735,13 +26735,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>614.0550137694784</v>
+        <v>614.0550137694783</v>
       </c>
       <c r="C3" t="n">
-        <v>614.0550137694784</v>
+        <v>614.0550137694781</v>
       </c>
       <c r="D3" t="n">
-        <v>933.7024595627835</v>
+        <v>933.7024595627846</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.7138800015063</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="C4" t="n">
-        <v>263.7138800015063</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="D4" t="n">
-        <v>640.1406900856965</v>
+        <v>640.1406900856982</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26805,7 +26805,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="I4" t="n">
         <v>1172.708288099648</v>
@@ -26932,7 +26932,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -26944,7 +26944,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>6.536610333467188e-14</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26957,16 +26957,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>614.0550137694784</v>
+        <v>614.0550137694783</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>319.6474457933051</v>
+        <v>319.6474457933065</v>
       </c>
       <c r="E3" t="n">
-        <v>434.2730407788905</v>
+        <v>434.2730407788891</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26975,7 +26975,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27009,16 +27009,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.7138800015063</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>376.4268100841903</v>
+        <v>376.426810084192</v>
       </c>
       <c r="E4" t="n">
-        <v>532.5675980139519</v>
+        <v>532.5675980139501</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27033,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.7138800015063</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>376.4268100841905</v>
+        <v>376.4268100841921</v>
       </c>
       <c r="M4" t="n">
-        <v>532.5675980139519</v>
+        <v>532.5675980139501</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27255,16 +27255,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.7138800015063</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>376.4268100841903</v>
+        <v>376.426810084192</v>
       </c>
       <c r="M4" t="n">
-        <v>532.5675980139519</v>
+        <v>532.5675980139501</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,22 +27379,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>101.5590117695013</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>142.1140765027778</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>118.2164900707555</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>387.1550383620944</v>
       </c>
       <c r="H2" t="n">
-        <v>314.193632629268</v>
+        <v>50.47975262776185</v>
       </c>
       <c r="I2" t="n">
         <v>115.3066195468971</v>
@@ -27430,13 +27430,13 @@
         <v>152.7676931992223</v>
       </c>
       <c r="T2" t="n">
-        <v>212.2897156032232</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.1481678782825</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>64.03837846862876</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -27445,7 +27445,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>122.5240586545473</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27455,28 +27455,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>136.0227195864234</v>
       </c>
       <c r="H3" t="n">
-        <v>99.47932027120974</v>
+        <v>12.89862781413402</v>
       </c>
       <c r="I3" t="n">
-        <v>43.92180400150558</v>
+        <v>43.9218040015056</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27506,13 +27506,13 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>147.1499354121988</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>194.8409875848768</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8544875035546</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
@@ -27521,10 +27521,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>50.51920908443688</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -27534,7 +27534,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -27549,16 +27549,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.8836670385466</v>
       </c>
       <c r="H4" t="n">
         <v>152.3821593358568</v>
       </c>
       <c r="I4" t="n">
-        <v>60.25101747923228</v>
+        <v>122.1505735248085</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>15.07219909888209</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,7 +27582,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>127.5046028836639</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>204.7191642435938</v>
@@ -27591,16 +27591,16 @@
         <v>223.2143458795659</v>
       </c>
       <c r="U4" t="n">
-        <v>22.54475050117124</v>
+        <v>22.54475050117134</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>25.47693627012757</v>
       </c>
       <c r="W4" t="n">
-        <v>22.80911833508475</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27613,16 +27613,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>170.1648765455753</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>101.5590117695013</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>90.9691616191767</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>118.2164900707555</v>
+        <v>118.2164900707556</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
@@ -27634,7 +27634,7 @@
         <v>314.193632629268</v>
       </c>
       <c r="I5" t="n">
-        <v>115.3066195468971</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27667,13 +27667,13 @@
         <v>152.7676931992223</v>
       </c>
       <c r="T5" t="n">
-        <v>212.2897156032232</v>
+        <v>115.0273700322153</v>
       </c>
       <c r="U5" t="n">
         <v>251.1481678782825</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>64.03837846862876</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -27682,7 +27682,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>122.5240586545474</v>
       </c>
     </row>
     <row r="6">
@@ -27695,7 +27695,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>147.4450655646388</v>
@@ -27710,10 +27710,10 @@
         <v>136.0227195864234</v>
       </c>
       <c r="H6" t="n">
-        <v>15.93155005399653</v>
+        <v>99.47932027120976</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>43.92180400150561</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27740,28 +27740,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>18.15252495527767</v>
+        <v>18.1525249552777</v>
       </c>
       <c r="S6" t="n">
-        <v>147.1499354121988</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>194.8409875848768</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8544875035546</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>155.6163669058305</v>
       </c>
     </row>
     <row r="7">
@@ -27774,13 +27774,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>111.907260753153</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -27792,10 +27792,10 @@
         <v>152.3821593358568</v>
       </c>
       <c r="I7" t="n">
-        <v>122.1505735248085</v>
+        <v>122.1505735248086</v>
       </c>
       <c r="J7" t="n">
-        <v>15.07219909888208</v>
+        <v>15.07219909888211</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27819,7 +27819,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>127.5046028836639</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -27828,19 +27828,19 @@
         <v>223.2143458795659</v>
       </c>
       <c r="U7" t="n">
-        <v>96.28946523659616</v>
+        <v>286.2586305026775</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>22.80911833508475</v>
+        <v>22.80911833508486</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27856,22 +27856,22 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>334.6266850562571</v>
       </c>
       <c r="E8" t="n">
-        <v>123.9973686247586</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>301.0334742203004</v>
       </c>
       <c r="I8" t="n">
-        <v>65.76608425465025</v>
+        <v>65.76608425465008</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,16 +27901,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4854171348406</v>
+        <v>123.4854171348405</v>
       </c>
       <c r="T8" t="n">
         <v>206.6645630646898</v>
       </c>
       <c r="U8" t="n">
-        <v>251.0453666896857</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -27919,7 +27919,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -27944,13 +27944,13 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>1.776449164527435</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>1.776449164520695</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -28008,28 +28008,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>115.9615342899041</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>147.2573199590395</v>
       </c>
       <c r="I10" t="n">
-        <v>104.8162497430995</v>
+        <v>104.8162497430994</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,16 +28056,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5869591640953</v>
+        <v>73.18890272633779</v>
       </c>
       <c r="S10" t="n">
-        <v>194.6738502503845</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7514885103387</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2271897703044</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -28074,7 +28074,7 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28153,7 +28153,7 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -28564,7 +28564,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -28621,7 +28621,7 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -28743,7 +28743,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>-1.508245380440106e-12</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -29050,7 +29050,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -29560,10 +29560,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-13</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -29755,13 +29755,13 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>3.979039320256561e-13</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -30472,10 +30472,10 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>6.536610333467188e-14</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -30651,7 +30651,7 @@
         <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>2.893227152109362e-12</v>
+        <v>0</v>
       </c>
       <c r="O43" t="n">
         <v>0</v>
@@ -30697,13 +30697,13 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>9.28537247091299e-13</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>2.216893335571513e-12</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
@@ -31039,31 +31039,31 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.468562869425037</v>
+        <v>2.468562869425036</v>
       </c>
       <c r="H2" t="n">
         <v>25.28116948649916</v>
       </c>
       <c r="I2" t="n">
-        <v>95.16927002350883</v>
+        <v>95.1692700235088</v>
       </c>
       <c r="J2" t="n">
         <v>209.5161878388634</v>
       </c>
       <c r="K2" t="n">
-        <v>314.0104541016253</v>
+        <v>314.0104541016252</v>
       </c>
       <c r="L2" t="n">
         <v>389.5577350167918</v>
       </c>
       <c r="M2" t="n">
-        <v>433.4580399459293</v>
+        <v>433.4580399459292</v>
       </c>
       <c r="N2" t="n">
-        <v>440.4718441986832</v>
+        <v>440.4718441986831</v>
       </c>
       <c r="O2" t="n">
-        <v>415.925072165838</v>
+        <v>415.9250721658379</v>
       </c>
       <c r="P2" t="n">
         <v>354.9824263269073</v>
@@ -31075,7 +31075,7 @@
         <v>155.0658623465206</v>
       </c>
       <c r="S2" t="n">
-        <v>56.25237638702308</v>
+        <v>56.25237638702307</v>
       </c>
       <c r="T2" t="n">
         <v>10.8061339609081</v>
@@ -31124,16 +31124,16 @@
         <v>12.75612396528671</v>
       </c>
       <c r="I3" t="n">
-        <v>45.47482884990949</v>
+        <v>45.47482884990948</v>
       </c>
       <c r="J3" t="n">
-        <v>124.7864061472485</v>
+        <v>124.7864061472484</v>
       </c>
       <c r="K3" t="n">
         <v>213.2798437919895</v>
       </c>
       <c r="L3" t="n">
-        <v>286.7810703458305</v>
+        <v>286.7810703458304</v>
       </c>
       <c r="M3" t="n">
         <v>334.6599825043656</v>
@@ -31142,25 +31142,25 @@
         <v>343.517436429399</v>
       </c>
       <c r="O3" t="n">
-        <v>314.2513427542726</v>
+        <v>314.2513427542725</v>
       </c>
       <c r="P3" t="n">
-        <v>252.2144074480713</v>
+        <v>252.2144074480712</v>
       </c>
       <c r="Q3" t="n">
         <v>168.5986520825179</v>
       </c>
       <c r="R3" t="n">
-        <v>82.00530919736546</v>
+        <v>82.00530919736545</v>
       </c>
       <c r="S3" t="n">
         <v>24.53323569163905</v>
       </c>
       <c r="T3" t="n">
-        <v>5.323741109944815</v>
+        <v>5.323741109944814</v>
       </c>
       <c r="U3" t="n">
-        <v>0.08689457742020924</v>
+        <v>0.08689457742020923</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31200,16 +31200,16 @@
         <v>1.107312319912174</v>
       </c>
       <c r="H4" t="n">
-        <v>9.84501317158279</v>
+        <v>9.845013171582789</v>
       </c>
       <c r="I4" t="n">
         <v>33.29990140244975</v>
       </c>
       <c r="J4" t="n">
-        <v>78.28698101779069</v>
+        <v>78.28698101779068</v>
       </c>
       <c r="K4" t="n">
-        <v>128.6495586225235</v>
+        <v>128.6495586225234</v>
       </c>
       <c r="L4" t="n">
         <v>164.6271425440336</v>
@@ -31221,25 +31221,25 @@
         <v>169.4489843734694</v>
       </c>
       <c r="O4" t="n">
-        <v>156.5135631817681</v>
+        <v>156.513563181768</v>
       </c>
       <c r="P4" t="n">
         <v>133.9243918555596</v>
       </c>
       <c r="Q4" t="n">
-        <v>92.72230707919122</v>
+        <v>92.72230707919121</v>
       </c>
       <c r="R4" t="n">
-        <v>49.78878849350556</v>
+        <v>49.78878849350555</v>
       </c>
       <c r="S4" t="n">
-        <v>19.29743379337852</v>
+        <v>19.29743379337851</v>
       </c>
       <c r="T4" t="n">
-        <v>4.731243548715652</v>
+        <v>4.731243548715651</v>
       </c>
       <c r="U4" t="n">
-        <v>0.06039885381339138</v>
+        <v>0.06039885381339136</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2.468562869425037</v>
+        <v>2.468562869425036</v>
       </c>
       <c r="H5" t="n">
         <v>25.28116948649916</v>
       </c>
       <c r="I5" t="n">
-        <v>95.16927002350883</v>
+        <v>95.16927002350879</v>
       </c>
       <c r="J5" t="n">
-        <v>209.5161878388634</v>
+        <v>209.5161878388633</v>
       </c>
       <c r="K5" t="n">
-        <v>314.0104541016253</v>
+        <v>314.0104541016252</v>
       </c>
       <c r="L5" t="n">
-        <v>389.5577350167918</v>
+        <v>389.5577350167917</v>
       </c>
       <c r="M5" t="n">
-        <v>433.4580399459293</v>
+        <v>433.4580399459292</v>
       </c>
       <c r="N5" t="n">
-        <v>440.4718441986832</v>
+        <v>440.4718441986831</v>
       </c>
       <c r="O5" t="n">
-        <v>415.925072165838</v>
+        <v>415.9250721658378</v>
       </c>
       <c r="P5" t="n">
-        <v>354.9824263269073</v>
+        <v>354.9824263269072</v>
       </c>
       <c r="Q5" t="n">
-        <v>266.5770185656231</v>
+        <v>266.577018565623</v>
       </c>
       <c r="R5" t="n">
         <v>155.0658623465206</v>
       </c>
       <c r="S5" t="n">
-        <v>56.25237638702308</v>
+        <v>56.25237638702306</v>
       </c>
       <c r="T5" t="n">
         <v>10.8061339609081</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1974850295540029</v>
+        <v>0.1974850295540028</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31355,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.32079757678718</v>
+        <v>1.320797576787179</v>
       </c>
       <c r="H6" t="n">
         <v>12.75612396528671</v>
       </c>
       <c r="I6" t="n">
-        <v>45.47482884990949</v>
+        <v>45.47482884990947</v>
       </c>
       <c r="J6" t="n">
-        <v>124.7864061472485</v>
+        <v>124.7864061472484</v>
       </c>
       <c r="K6" t="n">
-        <v>213.2798437919895</v>
+        <v>213.2798437919894</v>
       </c>
       <c r="L6" t="n">
-        <v>286.7810703458305</v>
+        <v>286.7810703458304</v>
       </c>
       <c r="M6" t="n">
-        <v>334.6599825043656</v>
+        <v>334.6599825043655</v>
       </c>
       <c r="N6" t="n">
-        <v>343.517436429399</v>
+        <v>343.5174364293989</v>
       </c>
       <c r="O6" t="n">
-        <v>314.2513427542726</v>
+        <v>314.2513427542725</v>
       </c>
       <c r="P6" t="n">
-        <v>252.2144074480713</v>
+        <v>252.2144074480711</v>
       </c>
       <c r="Q6" t="n">
         <v>168.5986520825179</v>
       </c>
       <c r="R6" t="n">
-        <v>82.00530919736546</v>
+        <v>82.00530919736543</v>
       </c>
       <c r="S6" t="n">
-        <v>24.53323569163905</v>
+        <v>24.53323569163904</v>
       </c>
       <c r="T6" t="n">
-        <v>5.323741109944815</v>
+        <v>5.323741109944813</v>
       </c>
       <c r="U6" t="n">
-        <v>0.08689457742020924</v>
+        <v>0.0868945774202092</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,22 +31434,22 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.107312319912174</v>
+        <v>1.107312319912173</v>
       </c>
       <c r="H7" t="n">
-        <v>9.84501317158279</v>
+        <v>9.845013171582787</v>
       </c>
       <c r="I7" t="n">
-        <v>33.29990140244975</v>
+        <v>33.29990140244974</v>
       </c>
       <c r="J7" t="n">
-        <v>78.28698101779069</v>
+        <v>78.28698101779067</v>
       </c>
       <c r="K7" t="n">
-        <v>128.6495586225235</v>
+        <v>128.6495586225234</v>
       </c>
       <c r="L7" t="n">
-        <v>164.6271425440336</v>
+        <v>164.6271425440335</v>
       </c>
       <c r="M7" t="n">
         <v>173.576239384051</v>
@@ -31458,25 +31458,25 @@
         <v>169.4489843734694</v>
       </c>
       <c r="O7" t="n">
-        <v>156.5135631817681</v>
+        <v>156.513563181768</v>
       </c>
       <c r="P7" t="n">
-        <v>133.9243918555596</v>
+        <v>133.9243918555595</v>
       </c>
       <c r="Q7" t="n">
-        <v>92.72230707919122</v>
+        <v>92.7223070791912</v>
       </c>
       <c r="R7" t="n">
-        <v>49.78878849350556</v>
+        <v>49.78878849350554</v>
       </c>
       <c r="S7" t="n">
-        <v>19.29743379337852</v>
+        <v>19.29743379337851</v>
       </c>
       <c r="T7" t="n">
-        <v>4.731243548715652</v>
+        <v>4.73124354871565</v>
       </c>
       <c r="U7" t="n">
-        <v>0.06039885381339138</v>
+        <v>0.06039885381339136</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.753577726885559</v>
+        <v>3.753577726885563</v>
       </c>
       <c r="H8" t="n">
-        <v>38.44132789546674</v>
+        <v>38.44132789546678</v>
       </c>
       <c r="I8" t="n">
-        <v>144.7098053157557</v>
+        <v>144.7098053157558</v>
       </c>
       <c r="J8" t="n">
-        <v>318.5802175972535</v>
+        <v>318.5802175972539</v>
       </c>
       <c r="K8" t="n">
-        <v>477.4691627763193</v>
+        <v>477.4691627763199</v>
       </c>
       <c r="L8" t="n">
-        <v>592.3427171354933</v>
+        <v>592.342717135494</v>
       </c>
       <c r="M8" t="n">
-        <v>659.0954050359944</v>
+        <v>659.0954050359952</v>
       </c>
       <c r="N8" t="n">
-        <v>669.760257752508</v>
+        <v>669.7602577525089</v>
       </c>
       <c r="O8" t="n">
-        <v>632.4356192307897</v>
+        <v>632.4356192307905</v>
       </c>
       <c r="P8" t="n">
-        <v>539.7691690983024</v>
+        <v>539.769169098303</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.3441667542132</v>
+        <v>405.3441667542137</v>
       </c>
       <c r="R8" t="n">
-        <v>235.7856768864752</v>
+        <v>235.7856768864755</v>
       </c>
       <c r="S8" t="n">
-        <v>85.53465245140475</v>
+        <v>85.53465245140487</v>
       </c>
       <c r="T8" t="n">
-        <v>16.43128649944154</v>
+        <v>16.43128649944156</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3002862181508447</v>
+        <v>0.300286218150845</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.008341139436931</v>
+        <v>2.008341139436933</v>
       </c>
       <c r="H9" t="n">
-        <v>19.39634732035141</v>
+        <v>19.39634732035143</v>
       </c>
       <c r="I9" t="n">
-        <v>69.14683309026275</v>
+        <v>69.14683309026283</v>
       </c>
       <c r="J9" t="n">
-        <v>189.7441951079427</v>
+        <v>189.7441951079429</v>
       </c>
       <c r="K9" t="n">
-        <v>324.303051450217</v>
+        <v>324.3030514502174</v>
       </c>
       <c r="L9" t="n">
-        <v>436.0654741571283</v>
+        <v>436.0654741571288</v>
       </c>
       <c r="M9" t="n">
-        <v>508.8678404617169</v>
+        <v>508.8678404617175</v>
       </c>
       <c r="N9" t="n">
-        <v>522.3360580152217</v>
+        <v>522.3360580152223</v>
       </c>
       <c r="O9" t="n">
-        <v>477.8354464519086</v>
+        <v>477.8354464519092</v>
       </c>
       <c r="P9" t="n">
-        <v>383.5050724947592</v>
+        <v>383.5050724947596</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.3629847463703</v>
+        <v>256.3629847463706</v>
       </c>
       <c r="R9" t="n">
-        <v>124.6933209204789</v>
+        <v>124.6933209204791</v>
       </c>
       <c r="S9" t="n">
-        <v>37.30405581366401</v>
+        <v>37.30405581366406</v>
       </c>
       <c r="T9" t="n">
-        <v>8.09502415413394</v>
+        <v>8.09502415413395</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321277065419034</v>
+        <v>0.1321277065419035</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.68372574675256</v>
+        <v>1.683725746752562</v>
       </c>
       <c r="H10" t="n">
-        <v>14.96985254840005</v>
+        <v>14.96985254840006</v>
       </c>
       <c r="I10" t="n">
-        <v>50.63422518415882</v>
+        <v>50.63422518415889</v>
       </c>
       <c r="J10" t="n">
-        <v>119.039410295406</v>
+        <v>119.0394102954061</v>
       </c>
       <c r="K10" t="n">
-        <v>195.618318577252</v>
+        <v>195.6183185772522</v>
       </c>
       <c r="L10" t="n">
-        <v>250.3240987490125</v>
+        <v>250.3240987490128</v>
       </c>
       <c r="M10" t="n">
-        <v>263.9316641023127</v>
+        <v>263.931664102313</v>
       </c>
       <c r="N10" t="n">
-        <v>257.6559590462351</v>
+        <v>257.6559590462355</v>
       </c>
       <c r="O10" t="n">
-        <v>237.9869810046256</v>
+        <v>237.9869810046259</v>
       </c>
       <c r="P10" t="n">
-        <v>203.6389757708732</v>
+        <v>203.6389757708735</v>
       </c>
       <c r="Q10" t="n">
-        <v>140.9890713939803</v>
+        <v>140.9890713939805</v>
       </c>
       <c r="R10" t="n">
-        <v>75.70643221307418</v>
+        <v>75.70643221307428</v>
       </c>
       <c r="S10" t="n">
-        <v>29.34274778658779</v>
+        <v>29.34274778658783</v>
       </c>
       <c r="T10" t="n">
-        <v>7.194100917942755</v>
+        <v>7.194100917942764</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09183958618650338</v>
+        <v>0.09183958618650349</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,7 +31750,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31762,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>416.4300581532619</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214699</v>
+        <v>268.6704608606964</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31911,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31938,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32072,34 +32072,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>204.3779992811859</v>
       </c>
       <c r="K15" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>510.8679233250724</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742438</v>
@@ -32309,13 +32309,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>258.3858318060507</v>
       </c>
       <c r="L18" t="n">
         <v>638.8832749473072</v>
@@ -32324,19 +32324,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O18" t="n">
-        <v>551.7051287319853</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32461,49 +32461,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H20" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N21" t="n">
-        <v>373.3554713800157</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>213.3000196296233</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,49 +32619,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P22" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32795,22 +32795,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N24" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>398.7616643558013</v>
+        <v>301.6445156724565</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33023,19 +33023,19 @@
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M27" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>265.5442652399247</v>
       </c>
       <c r="O27" t="n">
         <v>700.0808204437243</v>
@@ -33260,7 +33260,7 @@
         <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
         <v>137.841438974359</v>
@@ -33269,7 +33269,7 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M30" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071785</v>
@@ -33278,7 +33278,7 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>399.4395445221152</v>
       </c>
       <c r="Q30" t="n">
         <v>375.599612848529</v>
@@ -33494,7 +33494,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
@@ -33503,16 +33503,16 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>244.0266243181833</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>322.6999460717714</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P33" t="n">
         <v>561.8765786214698</v>
@@ -33734,13 +33734,13 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>227.8611086463993</v>
       </c>
       <c r="L36" t="n">
-        <v>240.4469701760392</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
         <v>142.1340339220183</v>
@@ -33889,7 +33889,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
@@ -33968,25 +33968,25 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>172.7144981745678</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>395.1848490935921</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P39" t="n">
         <v>561.8765786214698</v>
@@ -34120,37 +34120,37 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H41" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R41" t="n">
         <v>345.4516222043725</v>
@@ -34159,10 +34159,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U41" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34208,37 +34208,37 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O42" t="n">
-        <v>361.7519118779092</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214697</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>158.8462560123218</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>182.689256441856</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T42" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U42" t="n">
         <v>0.1935814387275954</v>
@@ -34284,28 +34284,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J43" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N43" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P43" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q43" t="n">
         <v>206.5643005515927</v>
@@ -34314,7 +34314,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
@@ -34357,37 +34357,37 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H44" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R44" t="n">
         <v>345.4516222043725</v>
@@ -34396,10 +34396,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U44" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34448,34 +34448,34 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>217.8799919951691</v>
       </c>
       <c r="M45" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>182.689256441856</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T45" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U45" t="n">
         <v>0.1935814387275954</v>
@@ -34521,28 +34521,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J46" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N46" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P46" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q46" t="n">
         <v>206.5643005515927</v>
@@ -34551,7 +34551,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
@@ -34696,28 +34696,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>28.47028331217712</v>
+        <v>28.47028331217709</v>
       </c>
       <c r="K2" t="n">
-        <v>93.92060305664472</v>
+        <v>93.92060305664467</v>
       </c>
       <c r="L2" t="n">
-        <v>153.7913200468046</v>
+        <v>153.7913200468045</v>
       </c>
       <c r="M2" t="n">
-        <v>203.1118067186566</v>
+        <v>203.1118067186565</v>
       </c>
       <c r="N2" t="n">
-        <v>211.0587806020923</v>
+        <v>211.0587806020922</v>
       </c>
       <c r="O2" t="n">
-        <v>185.8268607441513</v>
+        <v>185.8268607441512</v>
       </c>
       <c r="P2" t="n">
-        <v>123.7494305716378</v>
+        <v>123.7494305716377</v>
       </c>
       <c r="Q2" t="n">
-        <v>44.27132869117364</v>
+        <v>44.27132869117358</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34778,10 +34778,10 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>75.4384048176305</v>
+        <v>75.43840481763047</v>
       </c>
       <c r="L3" t="n">
-        <v>148.2266905659563</v>
+        <v>245.5483596572286</v>
       </c>
       <c r="M3" t="n">
         <v>192.5259485823473</v>
@@ -34796,7 +34796,7 @@
         <v>118.240000033741</v>
       </c>
       <c r="Q3" t="n">
-        <v>125.9385470877691</v>
+        <v>28.61687799649638</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34857,7 +34857,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>106.3800667966408</v>
+        <v>106.3800667966406</v>
       </c>
       <c r="L4" t="n">
         <v>192.2171678043497</v>
@@ -34866,7 +34866,7 @@
         <v>213.1601163458916</v>
       </c>
       <c r="N4" t="n">
-        <v>213.581156752698</v>
+        <v>213.5811567526979</v>
       </c>
       <c r="O4" t="n">
         <v>181.0986910958077</v>
@@ -34875,7 +34875,7 @@
         <v>131.2029511204531</v>
       </c>
       <c r="Q4" t="n">
-        <v>6.56026382749684</v>
+        <v>6.560263827496826</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,28 +34933,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>28.47028331217712</v>
+        <v>28.47028331217703</v>
       </c>
       <c r="K5" t="n">
-        <v>93.92060305664472</v>
+        <v>93.92060305664461</v>
       </c>
       <c r="L5" t="n">
-        <v>153.7913200468046</v>
+        <v>153.7913200468045</v>
       </c>
       <c r="M5" t="n">
-        <v>203.1118067186566</v>
+        <v>203.1118067186564</v>
       </c>
       <c r="N5" t="n">
-        <v>211.0587806020923</v>
+        <v>211.0587806020922</v>
       </c>
       <c r="O5" t="n">
-        <v>185.8268607441513</v>
+        <v>185.8268607441511</v>
       </c>
       <c r="P5" t="n">
-        <v>123.7494305716378</v>
+        <v>123.7494305716377</v>
       </c>
       <c r="Q5" t="n">
-        <v>44.27132869117364</v>
+        <v>44.27132869117352</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>97.32166909127262</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>75.4384048176305</v>
+        <v>75.43840481763041</v>
       </c>
       <c r="L6" t="n">
-        <v>148.2266905659563</v>
+        <v>148.2266905659562</v>
       </c>
       <c r="M6" t="n">
-        <v>192.5259485823473</v>
+        <v>192.5259485823472</v>
       </c>
       <c r="N6" t="n">
-        <v>212.1757243460657</v>
+        <v>212.1757243460656</v>
       </c>
       <c r="O6" t="n">
-        <v>171.6550983098281</v>
+        <v>171.655098309828</v>
       </c>
       <c r="P6" t="n">
-        <v>118.240000033741</v>
+        <v>118.2400000337409</v>
       </c>
       <c r="Q6" t="n">
-        <v>28.61687799649641</v>
+        <v>125.9385470877692</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35109,10 +35109,10 @@
         <v>181.0986910958077</v>
       </c>
       <c r="P7" t="n">
-        <v>131.2029511204531</v>
+        <v>131.202951120453</v>
       </c>
       <c r="Q7" t="n">
-        <v>6.56026382749684</v>
+        <v>6.560263827496811</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.5343130705672</v>
+        <v>137.5343130705676</v>
       </c>
       <c r="K8" t="n">
-        <v>257.3793117313388</v>
+        <v>257.3793117313393</v>
       </c>
       <c r="L8" t="n">
-        <v>356.5763021655061</v>
+        <v>356.5763021655068</v>
       </c>
       <c r="M8" t="n">
-        <v>428.7491718087217</v>
+        <v>428.7491718087225</v>
       </c>
       <c r="N8" t="n">
-        <v>440.3471941559171</v>
+        <v>440.347194155918</v>
       </c>
       <c r="O8" t="n">
-        <v>402.337407809103</v>
+        <v>402.3374078091038</v>
       </c>
       <c r="P8" t="n">
-        <v>308.5361733430329</v>
+        <v>308.5361733430335</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.0384768797637</v>
+        <v>183.0384768797642</v>
       </c>
       <c r="R8" t="n">
-        <v>20.20013907234306</v>
+        <v>20.20013907234335</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>188.9976037816848</v>
+        <v>62.90656844127619</v>
       </c>
       <c r="K9" t="n">
-        <v>379.2332739216762</v>
+        <v>450.926849488437</v>
       </c>
       <c r="L9" t="n">
-        <v>297.5110943772542</v>
+        <v>297.5110943772547</v>
       </c>
       <c r="M9" t="n">
-        <v>366.7338065396986</v>
+        <v>421.1312663133508</v>
       </c>
       <c r="N9" t="n">
-        <v>390.9943459318885</v>
+        <v>390.994345931889</v>
       </c>
       <c r="O9" t="n">
-        <v>335.2392020074642</v>
+        <v>335.2392020074648</v>
       </c>
       <c r="P9" t="n">
-        <v>249.5306650804289</v>
+        <v>249.5306650804294</v>
       </c>
       <c r="Q9" t="n">
-        <v>326.4584983961979</v>
+        <v>326.4584983961982</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.68023017873323</v>
+        <v>25.68023017873337</v>
       </c>
       <c r="K10" t="n">
-        <v>173.3488267513691</v>
+        <v>173.3488267513693</v>
       </c>
       <c r="L10" t="n">
-        <v>277.9141240093286</v>
+        <v>277.9141240093289</v>
       </c>
       <c r="M10" t="n">
-        <v>303.5155410641532</v>
+        <v>303.5155410641536</v>
       </c>
       <c r="N10" t="n">
-        <v>301.7881314254637</v>
+        <v>301.788131425464</v>
       </c>
       <c r="O10" t="n">
-        <v>262.5721089186653</v>
+        <v>262.5721089186655</v>
       </c>
       <c r="P10" t="n">
-        <v>200.9175350357667</v>
+        <v>200.9175350357669</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.82702814228593</v>
+        <v>54.8270281422861</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35483,34 +35483,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>274.2960242312436</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071396</v>
+        <v>134.6960534463662</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35720,34 +35720,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>77.54037261451921</v>
       </c>
       <c r="K15" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>379.5262112417391</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35957,13 +35957,13 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678996</v>
+        <v>120.5443928316917</v>
       </c>
       <c r="L18" t="n">
         <v>500.328895167433</v>
@@ -35972,19 +35972,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>409.1088842875408</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,7 +36039,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295185</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
         <v>264.3325884096349</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J20" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,34 +36194,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N21" t="n">
-        <v>242.0137592966824</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>79.32561221529308</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789216</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36443,22 +36443,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>256.1654199113569</v>
+        <v>159.048271228012</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36671,19 +36671,19 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>134.2025531565914</v>
       </c>
       <c r="O27" t="n">
         <v>557.4845759992799</v>
@@ -36908,7 +36908,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -36917,7 +36917,7 @@
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>592.1338044402482</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238452</v>
@@ -36926,7 +36926,7 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>265.4651371077849</v>
       </c>
       <c r="Q30" t="n">
         <v>235.6178387625075</v>
@@ -37142,7 +37142,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37151,16 +37151,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>101.892590396165</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>191.358233988438</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>427.9021712071395</v>
@@ -37382,13 +37382,13 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678996</v>
+        <v>90.01966967204031</v>
       </c>
       <c r="L36" t="n">
-        <v>101.892590396165</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -37537,7 +37537,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
@@ -37616,25 +37616,25 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>45.87687150790109</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>253.0508151715738</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
         <v>427.9021712071395</v>
@@ -37774,31 +37774,31 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J41" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367786</v>
       </c>
       <c r="L41" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N41" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243153</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P41" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R41" t="n">
         <v>129.8660843902404</v>
@@ -37853,34 +37853,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>219.1556674334648</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>427.9021712071394</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>18.8644819263003</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789208</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K43" t="n">
         <v>264.3325884096349</v>
@@ -37944,19 +37944,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N43" t="n">
-        <v>421.6261329899103</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P43" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q43" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38011,31 +38011,31 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J44" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L44" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N44" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P44" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R44" t="n">
         <v>129.8660843902404</v>
@@ -38096,28 +38096,28 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>79.32561221529492</v>
       </c>
       <c r="M45" t="n">
-        <v>592.1338044402482</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789208</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K46" t="n">
         <v>264.3325884096349</v>
@@ -38181,19 +38181,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N46" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P46" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q46" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
